--- a/Design Database Pendidikan.xlsx
+++ b/Design Database Pendidikan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sim-guru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="19815" windowHeight="7155" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19815" windowHeight="7155" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. IDENTITAS PRIBADI" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="129">
   <si>
     <t>NAMA SEKOLAH</t>
   </si>
@@ -412,8 +417,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,9 +550,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,15 +560,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -576,12 +569,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -628,7 +641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +673,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,6 +708,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,14 +884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -884,7 +899,7 @@
     <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>88</v>
       </c>
@@ -895,7 +910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -912,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -927,7 +942,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -942,7 +957,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -957,7 +972,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -974,7 +989,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -989,7 +1004,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1021,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1038,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1110,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1114,7 +1129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1144,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1159,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1174,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1189,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1204,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1219,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1234,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1249,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1264,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1279,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1294,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +1313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1328,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>113</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1366,7 +1381,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -1381,7 +1396,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -1396,7 +1411,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1426,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -1426,7 +1441,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -1441,7 +1456,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -1456,7 +1471,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1486,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>42</v>
       </c>
@@ -1492,21 +1507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:D63"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -1615,12 +1630,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -1648,12 +1663,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1681,12 +1696,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>58</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -1742,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>60</v>
       </c>
@@ -1756,12 +1771,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>62</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>63</v>
       </c>
@@ -1789,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1817,12 +1832,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -1836,7 +1851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>64</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -1864,12 +1879,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>75</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>76</v>
       </c>
@@ -1928,12 +1943,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>78</v>
       </c>
@@ -1947,7 +1962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>76</v>
       </c>
@@ -1992,12 +2007,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2011,7 +2040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +2054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>64</v>
       </c>
@@ -2039,12 +2068,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>84</v>
       </c>
@@ -2058,7 +2087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>82</v>
       </c>
@@ -2072,7 +2101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>64</v>
       </c>
@@ -2086,12 +2115,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>86</v>
       </c>
@@ -2105,7 +2134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>87</v>
       </c>
@@ -2167,14 +2196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -2182,12 +2211,12 @@
     <col min="6" max="6" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>91</v>
       </c>
@@ -2198,7 +2227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -2209,12 +2238,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -2222,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>99</v>
       </c>
@@ -2259,7 +2288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -2281,12 +2310,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -2297,7 +2326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>97</v>
       </c>
@@ -2314,88 +2343,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2403,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>102</v>
       </c>
@@ -2427,7 +2456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -2435,7 +2464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -2443,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
@@ -2483,7 +2512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
@@ -2491,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
@@ -2499,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
@@ -2515,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -2523,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
@@ -2531,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>30</v>
       </c>
@@ -2539,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
@@ -2547,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
@@ -2555,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
@@ -2563,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>39</v>
       </c>
@@ -2595,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
@@ -2611,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
@@ -2619,12 +2648,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -2632,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>44</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -2656,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -2664,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -2672,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>48</v>
       </c>
@@ -2680,12 +2709,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>46</v>
       </c>
@@ -2701,12 +2730,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>46</v>
       </c>
@@ -2722,12 +2751,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>56</v>
       </c>
@@ -2735,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>57</v>
       </c>
@@ -2743,7 +2772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>58</v>
       </c>
@@ -2751,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>59</v>
       </c>
@@ -2759,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>60</v>
       </c>
@@ -2767,12 +2796,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -2780,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -2788,7 +2817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -2796,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>65</v>
       </c>
@@ -2804,12 +2833,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>72</v>
       </c>
@@ -2817,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>64</v>
       </c>
@@ -2825,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -2833,12 +2862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -2854,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>75</v>
       </c>
@@ -2862,7 +2891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>76</v>
       </c>
@@ -2870,12 +2899,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>78</v>
       </c>
@@ -2883,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>46</v>
       </c>
@@ -2891,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>76</v>
       </c>
@@ -2907,12 +2936,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>81</v>
       </c>
@@ -2920,7 +2949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>82</v>
       </c>
@@ -2928,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>64</v>
       </c>
@@ -2936,12 +2965,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>84</v>
       </c>
@@ -2949,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>82</v>
       </c>
@@ -2957,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>64</v>
       </c>
@@ -2965,12 +2994,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>86</v>
       </c>
@@ -2978,7 +3007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +3015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>87</v>
       </c>
@@ -3019,14 +3048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
@@ -3038,12 +3067,12 @@
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>102</v>
       </c>
@@ -3057,7 +3086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -3065,12 +3094,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>111</v>
       </c>
@@ -3099,44 +3128,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="14">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="14">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="C9" s="14">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3144,14 +3173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" customWidth="1"/>
@@ -3162,12 +3191,12 @@
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -3181,7 +3210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -3189,12 +3218,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>111</v>
       </c>
@@ -3217,8 +3246,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="16">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
@@ -3228,8 +3257,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="C8" s="16">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
         <v>2</v>
       </c>
       <c r="D8" s="6"/>
@@ -3239,8 +3268,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="16">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
@@ -3256,216 +3285,216 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="18"/>
-    <col min="3" max="3" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="18" customWidth="1"/>
-    <col min="6" max="10" width="10.85546875" style="18" customWidth="1"/>
-    <col min="11" max="15" width="14" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="2" width="9.140625" style="17"/>
+    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="17" customWidth="1"/>
+    <col min="6" max="10" width="10.85546875" style="17" customWidth="1"/>
+    <col min="11" max="15" width="14" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="17" customFormat="1" ht="11.25">
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="17" customFormat="1" ht="11.25">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8" s="24">
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="C9" s="24">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10" s="24">
-        <v>3</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11" s="25">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="21">
         <v>4</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="F6:J6"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
